--- a/desafioFinanceiro/DesafioPoupança4reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança4reais.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Semana</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>OBSERVAÇÕES</t>
+  </si>
+  <si>
+    <t>Leticia</t>
   </si>
 </sst>
 </file>
@@ -532,9 +535,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,15 +601,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -641,14 +632,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -659,17 +656,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1017,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1029,1197 +1032,1250 @@
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.19921875" style="1" customWidth="1"/>
-    <col min="5" max="8" width="6.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.59765625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.8984375" style="1"/>
+    <col min="5" max="10" width="6.69921875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="44" t="s">
+      <c r="H3" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="44" t="s">
+      <c r="J3" s="40" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>4</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <f>C4</f>
         <v>4</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="63"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6">
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="58"/>
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <f>$C$4*B5</f>
         <v>8</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <f>C5+D4</f>
         <v>12</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="63"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <f t="shared" ref="C6:C22" si="0">$C$4*B6</f>
         <v>12</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <f t="shared" ref="D6:D22" si="1">C6+D5</f>
         <v>24</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="63"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="8">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="58"/>
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="63"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="8">
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="58"/>
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="63"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="8">
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="58"/>
+      <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f>$C$4*B9</f>
         <v>24</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="63"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <f>C10+D9</f>
         <v>112</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="63"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10">
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
+      <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="10">
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f>C12+D11</f>
         <v>180</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="10">
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="9">
         <v>10</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>11</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="14">
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
+      <c r="B15" s="13">
         <v>12</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="14">
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="13">
         <v>13</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <f t="shared" si="1"/>
         <v>364</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="14">
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
+      <c r="B17" s="13">
         <v>14</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>15</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="12">
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="58"/>
+      <c r="B19" s="11">
         <v>16</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="12">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <f t="shared" si="1"/>
         <v>544</v>
       </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="12">
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
+      <c r="B20" s="11">
         <v>17</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <f t="shared" si="1"/>
         <v>612</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="12">
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="58"/>
+      <c r="B21" s="11">
         <v>18</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <f t="shared" si="1"/>
         <v>684</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>19</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="18">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="18">
         <f t="shared" si="1"/>
         <v>760</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="58"/>
       <c r="B23" s="4">
         <v>20</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <f t="shared" ref="C23:C34" si="2">$C$4*B23</f>
         <v>80</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <f t="shared" ref="D23:D35" si="3">C23+D22</f>
         <v>840</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="58"/>
       <c r="B24" s="4">
         <v>21</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="19">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="19">
         <f t="shared" si="3"/>
         <v>924</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="58"/>
       <c r="B25" s="4">
         <v>22</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="19">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="19">
         <f t="shared" si="3"/>
         <v>1012</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <v>23</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="23">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="23">
         <f t="shared" si="3"/>
         <v>1104</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="25">
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="58"/>
+      <c r="B27" s="24">
         <v>24</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="25">
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="25">
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="58"/>
+      <c r="B28" s="24">
         <v>25</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="25">
         <f t="shared" si="3"/>
         <v>1300</v>
       </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="25">
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="58"/>
+      <c r="B29" s="24">
         <v>26</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="25">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="25">
         <f t="shared" si="3"/>
         <v>1404</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="26">
         <v>27</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="27">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="27">
         <f t="shared" si="3"/>
         <v>1512</v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="27">
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="58"/>
+      <c r="B31" s="26">
         <v>28</v>
       </c>
-      <c r="C31" s="28">
+      <c r="C31" s="27">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="D31" s="28">
+      <c r="D31" s="27">
         <f t="shared" si="3"/>
         <v>1624</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="27">
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="58"/>
+      <c r="B32" s="26">
         <v>29</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="27">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="27">
         <f t="shared" si="3"/>
         <v>1740</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="27">
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="58"/>
+      <c r="B33" s="26">
         <v>30</v>
       </c>
-      <c r="C33" s="28">
+      <c r="C33" s="27">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="27">
         <f t="shared" si="3"/>
         <v>1860</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="28">
         <v>31</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="29">
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="29">
         <f t="shared" si="3"/>
         <v>1984</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="29">
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="58"/>
+      <c r="B35" s="28">
         <v>32</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="29">
         <f t="shared" ref="C35:C55" si="4">$C$4*B35</f>
         <v>128</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="29">
         <f t="shared" si="3"/>
         <v>2112</v>
       </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="29">
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="58"/>
+      <c r="B36" s="28">
         <v>33</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="29">
         <f t="shared" si="4"/>
         <v>132</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="29">
         <f t="shared" ref="D36:D55" si="5">C36+D35</f>
         <v>2244</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="29">
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="58"/>
+      <c r="B37" s="28">
         <v>34</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="29">
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D37" s="29">
         <f t="shared" si="5"/>
         <v>2380</v>
       </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="53"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="30">
         <v>35</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C38" s="31">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="31">
         <f t="shared" si="5"/>
         <v>2520</v>
       </c>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="31">
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="58"/>
+      <c r="B39" s="30">
         <v>36</v>
       </c>
-      <c r="C39" s="32">
+      <c r="C39" s="31">
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="31">
         <f t="shared" si="5"/>
         <v>2664</v>
       </c>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="31">
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="58"/>
+      <c r="B40" s="30">
         <v>37</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="31">
         <f t="shared" si="4"/>
         <v>148</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="31">
         <f t="shared" si="5"/>
         <v>2812</v>
       </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="31">
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="53"/>
+      <c r="J40" s="53"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="58"/>
+      <c r="B41" s="30">
         <v>38</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="31">
         <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="31">
         <f t="shared" si="5"/>
         <v>2964</v>
       </c>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="15">
         <v>39</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="16">
         <f t="shared" si="4"/>
         <v>156</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="16">
         <f t="shared" si="5"/>
         <v>3120</v>
       </c>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="63"/>
-      <c r="I42" s="63"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="16">
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="58"/>
+      <c r="B43" s="15">
         <v>40</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="16">
         <f t="shared" si="5"/>
         <v>3280</v>
       </c>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="16">
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="58"/>
+      <c r="B44" s="15">
         <v>41</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="16">
         <f t="shared" si="4"/>
         <v>164</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="16">
         <f t="shared" si="5"/>
         <v>3444</v>
       </c>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="16">
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="58"/>
+      <c r="B45" s="15">
         <v>42</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="16">
         <f t="shared" si="4"/>
         <v>168</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="16">
         <f t="shared" si="5"/>
         <v>3612</v>
       </c>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B46" s="20">
         <v>43</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="21">
         <f t="shared" si="4"/>
         <v>172</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="21">
         <f t="shared" si="5"/>
         <v>3784</v>
       </c>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="21">
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="58"/>
+      <c r="B47" s="20">
         <v>44</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="21">
         <f t="shared" si="4"/>
         <v>176</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="21">
         <f t="shared" si="5"/>
         <v>3960</v>
       </c>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="21">
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="58"/>
+      <c r="B48" s="20">
         <v>45</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="21">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="21">
         <f t="shared" si="5"/>
         <v>4140</v>
       </c>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="21">
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="58"/>
+      <c r="B49" s="20">
         <v>46</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="21">
         <f t="shared" si="4"/>
         <v>184</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="21">
         <f t="shared" si="5"/>
         <v>4324</v>
       </c>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="33">
+      <c r="B50" s="32">
         <v>47</v>
       </c>
-      <c r="C50" s="34">
+      <c r="C50" s="33">
         <f t="shared" si="4"/>
         <v>188</v>
       </c>
-      <c r="D50" s="34">
+      <c r="D50" s="33">
         <f t="shared" si="5"/>
         <v>4512</v>
       </c>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="33">
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="58"/>
+      <c r="B51" s="32">
         <v>48</v>
       </c>
-      <c r="C51" s="34">
+      <c r="C51" s="33">
         <f t="shared" si="4"/>
         <v>192</v>
       </c>
-      <c r="D51" s="34">
+      <c r="D51" s="33">
         <f t="shared" si="5"/>
         <v>4704</v>
       </c>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="33">
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="58"/>
+      <c r="B52" s="32">
         <v>49</v>
       </c>
-      <c r="C52" s="34">
+      <c r="C52" s="33">
         <f t="shared" si="4"/>
         <v>196</v>
       </c>
-      <c r="D52" s="34">
+      <c r="D52" s="33">
         <f t="shared" si="5"/>
         <v>4900</v>
       </c>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="63"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="33">
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="58"/>
+      <c r="B53" s="32">
         <v>50</v>
       </c>
-      <c r="C53" s="34">
+      <c r="C53" s="33">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="D53" s="34">
+      <c r="D53" s="33">
         <f t="shared" si="5"/>
         <v>5100</v>
       </c>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="35">
+      <c r="B54" s="34">
         <v>51</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="35">
         <f t="shared" si="4"/>
         <v>204</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="36">
         <f t="shared" si="5"/>
         <v>5304</v>
       </c>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="38">
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="58"/>
+      <c r="B55" s="37">
         <v>52</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="36">
         <f t="shared" si="4"/>
         <v>208</v>
       </c>
-      <c r="D55" s="39">
+      <c r="D55" s="38">
         <f t="shared" si="5"/>
         <v>5512</v>
       </c>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="40"/>
-    </row>
-    <row r="58" spans="1:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="46">
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+    </row>
+    <row r="58" spans="1:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="42">
         <v>1</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
-      <c r="I58" s="59"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="53"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="52"/>
-    </row>
-    <row r="60" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="46">
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="57"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="49"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="48"/>
+    </row>
+    <row r="60" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="42">
         <v>2</v>
       </c>
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="59"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="50"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="48"/>
-      <c r="H61" s="48"/>
-      <c r="I61" s="49"/>
-    </row>
-    <row r="62" spans="1:9" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="46">
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="57"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="46"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="45"/>
+    </row>
+    <row r="62" spans="1:10" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="42">
         <v>3</v>
       </c>
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="59"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="60"/>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="45"/>
-      <c r="G63" s="45"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-    </row>
-    <row r="64" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="46">
-        <v>4</v>
-      </c>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="57"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="50"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="42"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="63"/>
     </row>
     <row r="65" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
-      <c r="B65" s="45"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="45"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
     </row>
     <row r="66" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="60"/>
-      <c r="B66" s="45"/>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
+      <c r="A66" s="50"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
@@ -2368,13 +2424,8 @@
       <c r="B112" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="E2:I2"/>
+  <mergeCells count="20">
+    <mergeCell ref="E2:J2"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
@@ -2390,6 +2441,10 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B62:I62"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/desafioFinanceiro/DesafioPoupança4reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança4reais.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>OBSERVAÇÕES</t>
-  </si>
-  <si>
-    <t>Leticia</t>
   </si>
 </sst>
 </file>
@@ -644,6 +641,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,24 +670,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1022,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1040,17 +1037,17 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="59" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
@@ -1072,17 +1069,15 @@
         <v>19</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="40" t="s">
         <v>20</v>
       </c>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5">
@@ -1103,7 +1098,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1123,7 +1118,7 @@
       <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7">
@@ -1145,7 +1140,7 @@
       <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -1165,7 +1160,7 @@
       <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -1185,7 +1180,7 @@
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -1205,7 +1200,7 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="9">
@@ -1227,7 +1222,7 @@
       <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -1247,7 +1242,7 @@
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -1267,7 +1262,7 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -1287,7 +1282,7 @@
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="13">
@@ -1309,7 +1304,7 @@
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="13">
         <v>12</v>
       </c>
@@ -1329,7 +1324,7 @@
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="13">
         <v>13</v>
       </c>
@@ -1349,7 +1344,7 @@
       <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="13">
         <v>14</v>
       </c>
@@ -1369,7 +1364,7 @@
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11">
@@ -1391,7 +1386,7 @@
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="11">
         <v>16</v>
       </c>
@@ -1411,7 +1406,7 @@
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="11">
         <v>17</v>
       </c>
@@ -1431,7 +1426,7 @@
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="11">
         <v>18</v>
       </c>
@@ -1451,7 +1446,7 @@
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="17">
@@ -1473,7 +1468,7 @@
       <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="4">
         <v>20</v>
       </c>
@@ -1493,7 +1488,7 @@
       <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="4">
         <v>21</v>
       </c>
@@ -1513,7 +1508,7 @@
       <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="4">
         <v>22</v>
       </c>
@@ -1533,7 +1528,7 @@
       <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="22">
@@ -1555,7 +1550,7 @@
       <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="24">
         <v>24</v>
       </c>
@@ -1575,7 +1570,7 @@
       <c r="J27" s="53"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="24">
         <v>25</v>
       </c>
@@ -1595,7 +1590,7 @@
       <c r="J28" s="53"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="24">
         <v>26</v>
       </c>
@@ -1615,7 +1610,7 @@
       <c r="J29" s="53"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="26">
@@ -1637,7 +1632,7 @@
       <c r="J30" s="53"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="26">
         <v>28</v>
       </c>
@@ -1657,7 +1652,7 @@
       <c r="J31" s="53"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="26">
         <v>29</v>
       </c>
@@ -1677,7 +1672,7 @@
       <c r="J32" s="53"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="26">
         <v>30</v>
       </c>
@@ -1697,7 +1692,7 @@
       <c r="J33" s="53"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="59" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="28">
@@ -1719,7 +1714,7 @@
       <c r="J34" s="53"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="28">
         <v>32</v>
       </c>
@@ -1739,7 +1734,7 @@
       <c r="J35" s="53"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="28">
         <v>33</v>
       </c>
@@ -1759,7 +1754,7 @@
       <c r="J36" s="53"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="28">
         <v>34</v>
       </c>
@@ -1779,7 +1774,7 @@
       <c r="J37" s="53"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="58" t="s">
+      <c r="A38" s="59" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="30">
@@ -1801,7 +1796,7 @@
       <c r="J38" s="53"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="30">
         <v>36</v>
       </c>
@@ -1821,7 +1816,7 @@
       <c r="J39" s="53"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="30">
         <v>37</v>
       </c>
@@ -1841,7 +1836,7 @@
       <c r="J40" s="53"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="30">
         <v>38</v>
       </c>
@@ -1861,7 +1856,7 @@
       <c r="J41" s="53"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="59" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="15">
@@ -1883,7 +1878,7 @@
       <c r="J42" s="53"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="15">
         <v>40</v>
       </c>
@@ -1903,7 +1898,7 @@
       <c r="J43" s="53"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="15">
         <v>41</v>
       </c>
@@ -1923,7 +1918,7 @@
       <c r="J44" s="53"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="15">
         <v>42</v>
       </c>
@@ -1943,7 +1938,7 @@
       <c r="J45" s="53"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="59" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="20">
@@ -1965,7 +1960,7 @@
       <c r="J46" s="53"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="58"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="20">
         <v>44</v>
       </c>
@@ -1985,7 +1980,7 @@
       <c r="J47" s="53"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="58"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="20">
         <v>45</v>
       </c>
@@ -2005,7 +2000,7 @@
       <c r="J48" s="53"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="58"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="20">
         <v>46</v>
       </c>
@@ -2025,7 +2020,7 @@
       <c r="J49" s="53"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="32">
@@ -2047,7 +2042,7 @@
       <c r="J50" s="53"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="32">
         <v>48</v>
       </c>
@@ -2067,7 +2062,7 @@
       <c r="J51" s="53"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="58"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="32">
         <v>49</v>
       </c>
@@ -2087,7 +2082,7 @@
       <c r="J52" s="53"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="58"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="32">
         <v>50</v>
       </c>
@@ -2107,7 +2102,7 @@
       <c r="J53" s="53"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="34">
@@ -2129,7 +2124,7 @@
       <c r="J54" s="53"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="58"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="37">
         <v>52</v>
       </c>
@@ -2155,31 +2150,31 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
     </row>
     <row r="58" spans="1:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="42">
         <v>1</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="57"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="63"/>
     </row>
     <row r="59" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="49"/>
@@ -2196,16 +2191,16 @@
       <c r="A60" s="42">
         <v>2</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="57"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="63"/>
     </row>
     <row r="61" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="46"/>
@@ -2222,16 +2217,16 @@
       <c r="A62" s="42">
         <v>3</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="57"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="63"/>
     </row>
     <row r="63" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50"/>
@@ -2246,14 +2241,14 @@
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="42"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="63"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="56"/>
     </row>
     <row r="65" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
@@ -2425,6 +2420,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B62:I62"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A42:A45"/>
@@ -2441,10 +2440,6 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="B62:I62"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/desafioFinanceiro/DesafioPoupança4reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança4reais.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Semana</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>OBSERVAÇÕES</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -650,6 +653,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -658,18 +673,6 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1020,7 +1023,7 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1037,17 +1040,17 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="57" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
@@ -1077,7 +1080,7 @@
       <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5">
@@ -1090,15 +1093,23 @@
         <f>C4</f>
         <v>4</v>
       </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="E4" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>25</v>
+      </c>
       <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="53"/>
+      <c r="H4" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>25</v>
+      </c>
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1118,7 +1129,7 @@
       <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7">
@@ -1140,7 +1151,7 @@
       <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -1160,7 +1171,7 @@
       <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -1180,7 +1191,7 @@
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -1200,7 +1211,7 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="63" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="9">
@@ -1222,7 +1233,7 @@
       <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -1242,7 +1253,7 @@
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -1262,7 +1273,7 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -1282,7 +1293,7 @@
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="63" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="13">
@@ -1304,7 +1315,7 @@
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="13">
         <v>12</v>
       </c>
@@ -1324,7 +1335,7 @@
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="13">
         <v>13</v>
       </c>
@@ -1344,7 +1355,7 @@
       <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="13">
         <v>14</v>
       </c>
@@ -1364,7 +1375,7 @@
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="63" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11">
@@ -1386,7 +1397,7 @@
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="11">
         <v>16</v>
       </c>
@@ -1406,7 +1417,7 @@
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
+      <c r="A20" s="63"/>
       <c r="B20" s="11">
         <v>17</v>
       </c>
@@ -1426,7 +1437,7 @@
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
+      <c r="A21" s="63"/>
       <c r="B21" s="11">
         <v>18</v>
       </c>
@@ -1446,7 +1457,7 @@
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="63" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="17">
@@ -1468,7 +1479,7 @@
       <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="4">
         <v>20</v>
       </c>
@@ -1488,7 +1499,7 @@
       <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="4">
         <v>21</v>
       </c>
@@ -1508,7 +1519,7 @@
       <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="4">
         <v>22</v>
       </c>
@@ -1528,7 +1539,7 @@
       <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="63" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="22">
@@ -1550,7 +1561,7 @@
       <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="24">
         <v>24</v>
       </c>
@@ -1570,7 +1581,7 @@
       <c r="J27" s="53"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="24">
         <v>25</v>
       </c>
@@ -1590,7 +1601,7 @@
       <c r="J28" s="53"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="24">
         <v>26</v>
       </c>
@@ -1610,7 +1621,7 @@
       <c r="J29" s="53"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="63" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="26">
@@ -1632,7 +1643,7 @@
       <c r="J30" s="53"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="26">
         <v>28</v>
       </c>
@@ -1652,7 +1663,7 @@
       <c r="J31" s="53"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="26">
         <v>29</v>
       </c>
@@ -1672,7 +1683,7 @@
       <c r="J32" s="53"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="26">
         <v>30</v>
       </c>
@@ -1692,7 +1703,7 @@
       <c r="J33" s="53"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="63" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="28">
@@ -1714,7 +1725,7 @@
       <c r="J34" s="53"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="28">
         <v>32</v>
       </c>
@@ -1734,7 +1745,7 @@
       <c r="J35" s="53"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="28">
         <v>33</v>
       </c>
@@ -1754,7 +1765,7 @@
       <c r="J36" s="53"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
+      <c r="A37" s="63"/>
       <c r="B37" s="28">
         <v>34</v>
       </c>
@@ -1774,7 +1785,7 @@
       <c r="J37" s="53"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="63" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="30">
@@ -1796,7 +1807,7 @@
       <c r="J38" s="53"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="30">
         <v>36</v>
       </c>
@@ -1816,7 +1827,7 @@
       <c r="J39" s="53"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="30">
         <v>37</v>
       </c>
@@ -1836,7 +1847,7 @@
       <c r="J40" s="53"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="30">
         <v>38</v>
       </c>
@@ -1856,7 +1867,7 @@
       <c r="J41" s="53"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="63" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="15">
@@ -1878,7 +1889,7 @@
       <c r="J42" s="53"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="15">
         <v>40</v>
       </c>
@@ -1898,7 +1909,7 @@
       <c r="J43" s="53"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="15">
         <v>41</v>
       </c>
@@ -1918,7 +1929,7 @@
       <c r="J44" s="53"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="15">
         <v>42</v>
       </c>
@@ -1938,7 +1949,7 @@
       <c r="J45" s="53"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="63" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="20">
@@ -1960,7 +1971,7 @@
       <c r="J46" s="53"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
+      <c r="A47" s="63"/>
       <c r="B47" s="20">
         <v>44</v>
       </c>
@@ -1980,7 +1991,7 @@
       <c r="J47" s="53"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="20">
         <v>45</v>
       </c>
@@ -2000,7 +2011,7 @@
       <c r="J48" s="53"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="20">
         <v>46</v>
       </c>
@@ -2020,7 +2031,7 @@
       <c r="J49" s="53"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="63" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="32">
@@ -2042,7 +2053,7 @@
       <c r="J50" s="53"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="32">
         <v>48</v>
       </c>
@@ -2062,7 +2073,7 @@
       <c r="J51" s="53"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="59"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="32">
         <v>49</v>
       </c>
@@ -2082,7 +2093,7 @@
       <c r="J52" s="53"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="59"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="32">
         <v>50</v>
       </c>
@@ -2102,7 +2113,7 @@
       <c r="J53" s="53"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="63" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="34">
@@ -2124,7 +2135,7 @@
       <c r="J54" s="53"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="37">
         <v>52</v>
       </c>
@@ -2150,31 +2161,31 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
-      <c r="B57" s="60" t="s">
+      <c r="B57" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
     </row>
     <row r="58" spans="1:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="42">
         <v>1</v>
       </c>
-      <c r="B58" s="61" t="s">
+      <c r="B58" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="63"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="60"/>
     </row>
     <row r="59" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="49"/>
@@ -2191,16 +2202,16 @@
       <c r="A60" s="42">
         <v>2</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="63"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="60"/>
     </row>
     <row r="61" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="46"/>
@@ -2217,16 +2228,16 @@
       <c r="A62" s="42">
         <v>3</v>
       </c>
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="62"/>
-      <c r="I62" s="63"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="60"/>
     </row>
     <row r="63" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="50"/>
@@ -2420,11 +2431,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="E2:J2"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
@@ -2440,6 +2446,11 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="E2:J2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/desafioFinanceiro/DesafioPoupança4reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança4reais.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>Guto</t>
-  </si>
-  <si>
-    <t>Solange</t>
   </si>
   <si>
     <r>
@@ -366,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -480,30 +477,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -525,7 +502,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -617,41 +594,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,10 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -670,9 +638,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1020,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1032,27 +997,29 @@
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.19921875" style="1" customWidth="1"/>
-    <col min="5" max="10" width="6.69921875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.8984375" style="1"/>
+    <col min="5" max="5" width="8" style="1" customWidth="1"/>
+    <col min="6" max="7" width="7.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.69921875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="61" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
@@ -1074,13 +1041,10 @@
       <c r="H3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="40"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5">
@@ -1093,23 +1057,22 @@
         <f>C4</f>
         <v>4</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="53"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
+      <c r="E4" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1121,15 +1084,14 @@
         <f>C5+D4</f>
         <v>12</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="51"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7">
@@ -1143,15 +1105,14 @@
         <f t="shared" ref="D6:D22" si="1">C6+D5</f>
         <v>24</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="51"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -1163,15 +1124,14 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="51"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -1183,15 +1143,14 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -1203,15 +1162,14 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="9">
@@ -1225,15 +1183,14 @@
         <f>C10+D9</f>
         <v>112</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="63"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="51"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -1245,15 +1202,14 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -1265,15 +1221,14 @@
         <f>C12+D11</f>
         <v>180</v>
       </c>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -1285,15 +1240,14 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="54" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="13">
@@ -1307,15 +1261,14 @@
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="63"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="54"/>
       <c r="B15" s="13">
         <v>12</v>
       </c>
@@ -1327,15 +1280,14 @@
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="54"/>
       <c r="B16" s="13">
         <v>13</v>
       </c>
@@ -1347,15 +1299,14 @@
         <f t="shared" si="1"/>
         <v>364</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="63"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="54"/>
       <c r="B17" s="13">
         <v>14</v>
       </c>
@@ -1367,15 +1318,14 @@
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="54" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11">
@@ -1389,15 +1339,14 @@
         <f t="shared" si="1"/>
         <v>480</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="54"/>
       <c r="B19" s="11">
         <v>16</v>
       </c>
@@ -1409,15 +1358,14 @@
         <f t="shared" si="1"/>
         <v>544</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="54"/>
       <c r="B20" s="11">
         <v>17</v>
       </c>
@@ -1429,15 +1377,14 @@
         <f t="shared" si="1"/>
         <v>612</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="63"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="54"/>
       <c r="B21" s="11">
         <v>18</v>
       </c>
@@ -1449,15 +1396,14 @@
         <f t="shared" si="1"/>
         <v>684</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="54" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="17">
@@ -1471,15 +1417,14 @@
         <f t="shared" si="1"/>
         <v>760</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="63"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="54"/>
       <c r="B23" s="4">
         <v>20</v>
       </c>
@@ -1491,15 +1436,14 @@
         <f t="shared" ref="D23:D35" si="3">C23+D22</f>
         <v>840</v>
       </c>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="63"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="54"/>
       <c r="B24" s="4">
         <v>21</v>
       </c>
@@ -1511,15 +1455,14 @@
         <f t="shared" si="3"/>
         <v>924</v>
       </c>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="54"/>
       <c r="B25" s="4">
         <v>22</v>
       </c>
@@ -1531,15 +1474,14 @@
         <f t="shared" si="3"/>
         <v>1012</v>
       </c>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="63" t="s">
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="22">
@@ -1553,15 +1495,14 @@
         <f t="shared" si="3"/>
         <v>1104</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="63"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="54"/>
       <c r="B27" s="24">
         <v>24</v>
       </c>
@@ -1573,15 +1514,14 @@
         <f t="shared" si="3"/>
         <v>1200</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="63"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="54"/>
       <c r="B28" s="24">
         <v>25</v>
       </c>
@@ -1593,15 +1533,14 @@
         <f t="shared" si="3"/>
         <v>1300</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="63"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="54"/>
       <c r="B29" s="24">
         <v>26</v>
       </c>
@@ -1613,15 +1552,14 @@
         <f t="shared" si="3"/>
         <v>1404</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="26">
@@ -1635,15 +1573,14 @@
         <f t="shared" si="3"/>
         <v>1512</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="63"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="54"/>
       <c r="B31" s="26">
         <v>28</v>
       </c>
@@ -1655,15 +1592,14 @@
         <f t="shared" si="3"/>
         <v>1624</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="63"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="54"/>
       <c r="B32" s="26">
         <v>29</v>
       </c>
@@ -1675,15 +1611,14 @@
         <f t="shared" si="3"/>
         <v>1740</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="63"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="54"/>
       <c r="B33" s="26">
         <v>30</v>
       </c>
@@ -1695,15 +1630,14 @@
         <f t="shared" si="3"/>
         <v>1860</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="63" t="s">
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="54" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="28">
@@ -1717,15 +1651,14 @@
         <f t="shared" si="3"/>
         <v>1984</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="63"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="54"/>
       <c r="B35" s="28">
         <v>32</v>
       </c>
@@ -1737,15 +1670,14 @@
         <f t="shared" si="3"/>
         <v>2112</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="63"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="54"/>
       <c r="B36" s="28">
         <v>33</v>
       </c>
@@ -1757,15 +1689,14 @@
         <f t="shared" ref="D36:D55" si="5">C36+D35</f>
         <v>2244</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="63"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="54"/>
       <c r="B37" s="28">
         <v>34</v>
       </c>
@@ -1777,15 +1708,14 @@
         <f t="shared" si="5"/>
         <v>2380</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="63" t="s">
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="54" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="30">
@@ -1799,15 +1729,14 @@
         <f t="shared" si="5"/>
         <v>2520</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="63"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="54"/>
       <c r="B39" s="30">
         <v>36</v>
       </c>
@@ -1819,15 +1748,14 @@
         <f t="shared" si="5"/>
         <v>2664</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="63"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="54"/>
       <c r="B40" s="30">
         <v>37</v>
       </c>
@@ -1839,15 +1767,14 @@
         <f t="shared" si="5"/>
         <v>2812</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="63"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="54"/>
       <c r="B41" s="30">
         <v>38</v>
       </c>
@@ -1859,15 +1786,14 @@
         <f t="shared" si="5"/>
         <v>2964</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="63" t="s">
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="15">
@@ -1881,15 +1807,14 @@
         <f t="shared" si="5"/>
         <v>3120</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="63"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="54"/>
       <c r="B43" s="15">
         <v>40</v>
       </c>
@@ -1901,15 +1826,14 @@
         <f t="shared" si="5"/>
         <v>3280</v>
       </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="63"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="54"/>
       <c r="B44" s="15">
         <v>41</v>
       </c>
@@ -1921,15 +1845,14 @@
         <f t="shared" si="5"/>
         <v>3444</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="63"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="54"/>
       <c r="B45" s="15">
         <v>42</v>
       </c>
@@ -1941,15 +1864,14 @@
         <f t="shared" si="5"/>
         <v>3612</v>
       </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="63" t="s">
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="54" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="20">
@@ -1963,15 +1885,14 @@
         <f t="shared" si="5"/>
         <v>3784</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="63"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="54"/>
       <c r="B47" s="20">
         <v>44</v>
       </c>
@@ -1983,15 +1904,14 @@
         <f t="shared" si="5"/>
         <v>3960</v>
       </c>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="63"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="54"/>
       <c r="B48" s="20">
         <v>45</v>
       </c>
@@ -2003,15 +1923,14 @@
         <f t="shared" si="5"/>
         <v>4140</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="63"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="54"/>
       <c r="B49" s="20">
         <v>46</v>
       </c>
@@ -2023,15 +1942,14 @@
         <f t="shared" si="5"/>
         <v>4324</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="63" t="s">
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="32">
@@ -2045,15 +1963,14 @@
         <f t="shared" si="5"/>
         <v>4512</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="63"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="54"/>
       <c r="B51" s="32">
         <v>48</v>
       </c>
@@ -2065,15 +1982,14 @@
         <f t="shared" si="5"/>
         <v>4704</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="63"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="54"/>
       <c r="B52" s="32">
         <v>49</v>
       </c>
@@ -2085,15 +2001,14 @@
         <f t="shared" si="5"/>
         <v>4900</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="63"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="54"/>
       <c r="B53" s="32">
         <v>50</v>
       </c>
@@ -2105,15 +2020,14 @@
         <f t="shared" si="5"/>
         <v>5100</v>
       </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="63" t="s">
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="34">
@@ -2127,15 +2041,14 @@
         <f t="shared" si="5"/>
         <v>5304</v>
       </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="63"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="54"/>
       <c r="B55" s="37">
         <v>52</v>
       </c>
@@ -2147,74 +2060,69 @@
         <f t="shared" si="5"/>
         <v>5512</v>
       </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
-      <c r="B57" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-    </row>
-    <row r="58" spans="1:10" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+    </row>
+    <row r="58" spans="1:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="42">
         <v>1</v>
       </c>
-      <c r="B58" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="60"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="49"/>
-      <c r="B59" s="47"/>
+      <c r="B58" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="47"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="41"/>
       <c r="D59" s="41"/>
       <c r="E59" s="41"/>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
-      <c r="I59" s="48"/>
-    </row>
-    <row r="60" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="42">
         <v>2</v>
       </c>
-      <c r="B60" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="60"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="46"/>
+      <c r="B60" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="45"/>
       <c r="B61" s="43"/>
       <c r="C61" s="44"/>
       <c r="D61" s="44"/>
@@ -2222,25 +2130,23 @@
       <c r="F61" s="44"/>
       <c r="G61" s="44"/>
       <c r="H61" s="44"/>
-      <c r="I61" s="45"/>
-    </row>
-    <row r="62" spans="1:10" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:9" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="42">
         <v>3</v>
       </c>
-      <c r="B62" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="60"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="50"/>
+      <c r="B62" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="48"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
       <c r="D63" s="41"/>
@@ -2248,32 +2154,29 @@
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-    </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="42"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="56"/>
-    </row>
-    <row r="65" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="52"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
       <c r="D65" s="41"/>
       <c r="E65" s="41"/>
       <c r="F65" s="41"/>
-      <c r="G65" s="50"/>
+      <c r="G65" s="48"/>
       <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="50"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="48"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
       <c r="D66" s="41"/>
@@ -2281,56 +2184,55 @@
       <c r="F66" s="41"/>
       <c r="G66" s="41"/>
       <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
@@ -2431,6 +2333,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
@@ -2446,11 +2353,6 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B57:I57"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="E2:J2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/desafioFinanceiro/DesafioPoupança4reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança4reais.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -985,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1000,14 +1000,13 @@
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
     <col min="6" max="7" width="7.59765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.69921875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.8984375" style="1"/>
+    <col min="9" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
@@ -1017,9 +1016,8 @@
       <c r="F2" s="59"/>
       <c r="G2" s="59"/>
       <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
@@ -1041,9 +1039,8 @@
       <c r="H3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="40"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="54" t="s">
         <v>5</v>
       </c>
@@ -1069,9 +1066,8 @@
       <c r="H4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="54"/>
       <c r="B5" s="5">
         <v>2</v>
@@ -1084,13 +1080,16 @@
         <f>C5+D4</f>
         <v>12</v>
       </c>
-      <c r="E5" s="50"/>
+      <c r="E5" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="F5" s="50"/>
       <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="51"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
         <v>4</v>
       </c>
@@ -1105,13 +1104,16 @@
         <f t="shared" ref="D6:D22" si="1">C6+D5</f>
         <v>24</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" s="50"/>
       <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H6" s="49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="54"/>
       <c r="B7" s="7">
         <v>4</v>
@@ -1128,9 +1130,8 @@
       <c r="F7" s="50"/>
       <c r="G7" s="49"/>
       <c r="H7" s="49"/>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
       <c r="B8" s="7">
         <v>5</v>
@@ -1147,9 +1148,8 @@
       <c r="F8" s="50"/>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="54"/>
       <c r="B9" s="7">
         <v>6</v>
@@ -1166,9 +1166,8 @@
       <c r="F9" s="50"/>
       <c r="G9" s="49"/>
       <c r="H9" s="49"/>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>6</v>
       </c>
@@ -1187,9 +1186,8 @@
       <c r="F10" s="50"/>
       <c r="G10" s="49"/>
       <c r="H10" s="49"/>
-      <c r="I10" s="51"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="54"/>
       <c r="B11" s="9">
         <v>8</v>
@@ -1206,9 +1204,8 @@
       <c r="F11" s="50"/>
       <c r="G11" s="51"/>
       <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="54"/>
       <c r="B12" s="9">
         <v>9</v>
@@ -1225,9 +1222,8 @@
       <c r="F12" s="50"/>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="54"/>
       <c r="B13" s="9">
         <v>10</v>
@@ -1244,9 +1240,8 @@
       <c r="F13" s="50"/>
       <c r="G13" s="51"/>
       <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="54" t="s">
         <v>7</v>
       </c>
@@ -1265,9 +1260,8 @@
       <c r="F14" s="50"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="54"/>
       <c r="B15" s="13">
         <v>12</v>
@@ -1284,9 +1278,8 @@
       <c r="F15" s="50"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="54"/>
       <c r="B16" s="13">
         <v>13</v>
@@ -1303,9 +1296,8 @@
       <c r="F16" s="50"/>
       <c r="G16" s="51"/>
       <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="54"/>
       <c r="B17" s="13">
         <v>14</v>
@@ -1322,9 +1314,8 @@
       <c r="F17" s="50"/>
       <c r="G17" s="51"/>
       <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="54" t="s">
         <v>8</v>
       </c>
@@ -1343,9 +1334,8 @@
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
       <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="54"/>
       <c r="B19" s="11">
         <v>16</v>
@@ -1362,9 +1352,8 @@
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="54"/>
       <c r="B20" s="11">
         <v>17</v>
@@ -1381,9 +1370,8 @@
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
       <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="54"/>
       <c r="B21" s="11">
         <v>18</v>
@@ -1400,9 +1388,8 @@
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
       <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="54" t="s">
         <v>9</v>
       </c>
@@ -1421,9 +1408,8 @@
       <c r="F22" s="50"/>
       <c r="G22" s="51"/>
       <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="54"/>
       <c r="B23" s="4">
         <v>20</v>
@@ -1440,9 +1426,8 @@
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
       <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="54"/>
       <c r="B24" s="4">
         <v>21</v>
@@ -1459,9 +1444,8 @@
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
       <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="54"/>
       <c r="B25" s="4">
         <v>22</v>
@@ -1478,9 +1462,8 @@
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
       <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="54" t="s">
         <v>10</v>
       </c>
@@ -1499,9 +1482,8 @@
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
       <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="54"/>
       <c r="B27" s="24">
         <v>24</v>
@@ -1518,9 +1500,8 @@
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
       <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="54"/>
       <c r="B28" s="24">
         <v>25</v>
@@ -1537,9 +1518,8 @@
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
       <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="54"/>
       <c r="B29" s="24">
         <v>26</v>
@@ -1556,9 +1536,8 @@
       <c r="F29" s="50"/>
       <c r="G29" s="51"/>
       <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="54" t="s">
         <v>11</v>
       </c>
@@ -1577,9 +1556,8 @@
       <c r="F30" s="50"/>
       <c r="G30" s="51"/>
       <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="54"/>
       <c r="B31" s="26">
         <v>28</v>
@@ -1596,9 +1574,8 @@
       <c r="F31" s="50"/>
       <c r="G31" s="51"/>
       <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="54"/>
       <c r="B32" s="26">
         <v>29</v>
@@ -1615,9 +1592,8 @@
       <c r="F32" s="50"/>
       <c r="G32" s="51"/>
       <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="54"/>
       <c r="B33" s="26">
         <v>30</v>
@@ -1634,9 +1610,8 @@
       <c r="F33" s="50"/>
       <c r="G33" s="51"/>
       <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="54" t="s">
         <v>12</v>
       </c>
@@ -1655,9 +1630,8 @@
       <c r="F34" s="50"/>
       <c r="G34" s="51"/>
       <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="54"/>
       <c r="B35" s="28">
         <v>32</v>
@@ -1674,9 +1648,8 @@
       <c r="F35" s="50"/>
       <c r="G35" s="51"/>
       <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="54"/>
       <c r="B36" s="28">
         <v>33</v>
@@ -1693,9 +1666,8 @@
       <c r="F36" s="50"/>
       <c r="G36" s="51"/>
       <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="54"/>
       <c r="B37" s="28">
         <v>34</v>
@@ -1712,9 +1684,8 @@
       <c r="F37" s="50"/>
       <c r="G37" s="51"/>
       <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="54" t="s">
         <v>13</v>
       </c>
@@ -1733,9 +1704,8 @@
       <c r="F38" s="50"/>
       <c r="G38" s="51"/>
       <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="54"/>
       <c r="B39" s="30">
         <v>36</v>
@@ -1752,9 +1722,8 @@
       <c r="F39" s="50"/>
       <c r="G39" s="51"/>
       <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="54"/>
       <c r="B40" s="30">
         <v>37</v>
@@ -1771,9 +1740,8 @@
       <c r="F40" s="50"/>
       <c r="G40" s="51"/>
       <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="54"/>
       <c r="B41" s="30">
         <v>38</v>
@@ -1790,9 +1758,8 @@
       <c r="F41" s="50"/>
       <c r="G41" s="51"/>
       <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="54" t="s">
         <v>14</v>
       </c>
@@ -1811,9 +1778,8 @@
       <c r="F42" s="50"/>
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="54"/>
       <c r="B43" s="15">
         <v>40</v>
@@ -1830,9 +1796,8 @@
       <c r="F43" s="50"/>
       <c r="G43" s="51"/>
       <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="54"/>
       <c r="B44" s="15">
         <v>41</v>
@@ -1849,9 +1814,8 @@
       <c r="F44" s="50"/>
       <c r="G44" s="51"/>
       <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="54"/>
       <c r="B45" s="15">
         <v>42</v>
@@ -1868,9 +1832,8 @@
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
       <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="54" t="s">
         <v>15</v>
       </c>
@@ -1889,9 +1852,8 @@
       <c r="F46" s="50"/>
       <c r="G46" s="51"/>
       <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="54"/>
       <c r="B47" s="20">
         <v>44</v>
@@ -1908,9 +1870,8 @@
       <c r="F47" s="50"/>
       <c r="G47" s="51"/>
       <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="54"/>
       <c r="B48" s="20">
         <v>45</v>
@@ -1927,9 +1888,8 @@
       <c r="F48" s="50"/>
       <c r="G48" s="51"/>
       <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="54"/>
       <c r="B49" s="20">
         <v>46</v>
@@ -1946,9 +1906,8 @@
       <c r="F49" s="50"/>
       <c r="G49" s="51"/>
       <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="54" t="s">
         <v>5</v>
       </c>
@@ -1967,9 +1926,8 @@
       <c r="F50" s="50"/>
       <c r="G50" s="51"/>
       <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="54"/>
       <c r="B51" s="32">
         <v>48</v>
@@ -1986,9 +1944,8 @@
       <c r="F51" s="50"/>
       <c r="G51" s="51"/>
       <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="54"/>
       <c r="B52" s="32">
         <v>49</v>
@@ -2005,9 +1962,8 @@
       <c r="F52" s="50"/>
       <c r="G52" s="51"/>
       <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="54"/>
       <c r="B53" s="32">
         <v>50</v>
@@ -2024,9 +1980,8 @@
       <c r="F53" s="50"/>
       <c r="G53" s="51"/>
       <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="54" t="s">
         <v>4</v>
       </c>
@@ -2045,9 +2000,8 @@
       <c r="F54" s="50"/>
       <c r="G54" s="51"/>
       <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="54"/>
       <c r="B55" s="37">
         <v>52</v>
@@ -2064,14 +2018,13 @@
       <c r="F55" s="50"/>
       <c r="G55" s="51"/>
       <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="55" t="s">
         <v>23</v>
@@ -2083,7 +2036,7 @@
       <c r="G57" s="55"/>
       <c r="H57" s="55"/>
     </row>
-    <row r="58" spans="1:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="42">
         <v>1</v>
       </c>
@@ -2097,7 +2050,7 @@
       <c r="G58" s="57"/>
       <c r="H58" s="57"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47"/>
       <c r="B59" s="46"/>
       <c r="C59" s="41"/>
@@ -2107,7 +2060,7 @@
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
     </row>
-    <row r="60" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="42">
         <v>2</v>
       </c>
@@ -2121,7 +2074,7 @@
       <c r="G60" s="57"/>
       <c r="H60" s="57"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
       <c r="B61" s="43"/>
       <c r="C61" s="44"/>
@@ -2131,7 +2084,7 @@
       <c r="G61" s="44"/>
       <c r="H61" s="44"/>
     </row>
-    <row r="62" spans="1:9" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="42">
         <v>3</v>
       </c>
@@ -2145,7 +2098,7 @@
       <c r="G62" s="57"/>
       <c r="H62" s="57"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="48"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
@@ -2155,7 +2108,7 @@
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
     </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="42"/>
       <c r="B64" s="52"/>
       <c r="C64" s="53"/>
@@ -2337,7 +2290,7 @@
     <mergeCell ref="B58:H58"/>
     <mergeCell ref="B60:H60"/>
     <mergeCell ref="B62:H62"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>

--- a/desafioFinanceiro/DesafioPoupança4reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança4reais.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -988,7 +988,7 @@
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1083,7 +1083,9 @@
       <c r="E5" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="50"/>
+      <c r="F5" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" s="49"/>
       <c r="H5" s="49" t="s">
         <v>24</v>
@@ -1107,7 +1109,9 @@
       <c r="E6" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="G6" s="49"/>
       <c r="H6" s="49" t="s">
         <v>24</v>
@@ -1126,9 +1130,15 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="49"/>
+      <c r="E7" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" s="49"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">

--- a/desafioFinanceiro/DesafioPoupança4reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança4reais.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -621,23 +621,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1007,15 +1007,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="58" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
@@ -1041,7 +1041,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5">
@@ -1068,7 +1068,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1092,7 +1092,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7">
@@ -1118,7 +1118,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -1139,10 +1139,12 @@
       <c r="G7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="49"/>
+      <c r="H7" s="49" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -1160,7 +1162,7 @@
       <c r="H8" s="49"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -1178,7 +1180,7 @@
       <c r="H9" s="49"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="9">
@@ -1198,7 +1200,7 @@
       <c r="H10" s="49"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -1216,7 +1218,7 @@
       <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -1234,7 +1236,7 @@
       <c r="H12" s="51"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -1252,7 +1254,7 @@
       <c r="H13" s="51"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="59" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="13">
@@ -1272,7 +1274,7 @@
       <c r="H14" s="51"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="13">
         <v>12</v>
       </c>
@@ -1290,7 +1292,7 @@
       <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="13">
         <v>13</v>
       </c>
@@ -1308,7 +1310,7 @@
       <c r="H16" s="51"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="13">
         <v>14</v>
       </c>
@@ -1326,7 +1328,7 @@
       <c r="H17" s="51"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11">
@@ -1346,7 +1348,7 @@
       <c r="H18" s="51"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="11">
         <v>16</v>
       </c>
@@ -1364,7 +1366,7 @@
       <c r="H19" s="51"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="11">
         <v>17</v>
       </c>
@@ -1382,7 +1384,7 @@
       <c r="H20" s="51"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
+      <c r="A21" s="59"/>
       <c r="B21" s="11">
         <v>18</v>
       </c>
@@ -1400,7 +1402,7 @@
       <c r="H21" s="51"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="17">
@@ -1420,7 +1422,7 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="4">
         <v>20</v>
       </c>
@@ -1438,7 +1440,7 @@
       <c r="H23" s="51"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="4">
         <v>21</v>
       </c>
@@ -1456,7 +1458,7 @@
       <c r="H24" s="51"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="4">
         <v>22</v>
       </c>
@@ -1474,7 +1476,7 @@
       <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="22">
@@ -1494,7 +1496,7 @@
       <c r="H26" s="51"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="24">
         <v>24</v>
       </c>
@@ -1512,7 +1514,7 @@
       <c r="H27" s="51"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="24">
         <v>25</v>
       </c>
@@ -1530,7 +1532,7 @@
       <c r="H28" s="51"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="24">
         <v>26</v>
       </c>
@@ -1548,7 +1550,7 @@
       <c r="H29" s="51"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="26">
@@ -1568,7 +1570,7 @@
       <c r="H30" s="51"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="26">
         <v>28</v>
       </c>
@@ -1586,7 +1588,7 @@
       <c r="H31" s="51"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="26">
         <v>29</v>
       </c>
@@ -1604,7 +1606,7 @@
       <c r="H32" s="51"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="26">
         <v>30</v>
       </c>
@@ -1622,7 +1624,7 @@
       <c r="H33" s="51"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="59" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="28">
@@ -1642,7 +1644,7 @@
       <c r="H34" s="51"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="28">
         <v>32</v>
       </c>
@@ -1660,7 +1662,7 @@
       <c r="H35" s="51"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="28">
         <v>33</v>
       </c>
@@ -1678,7 +1680,7 @@
       <c r="H36" s="51"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="28">
         <v>34</v>
       </c>
@@ -1696,7 +1698,7 @@
       <c r="H37" s="51"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="59" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="30">
@@ -1716,7 +1718,7 @@
       <c r="H38" s="51"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="30">
         <v>36</v>
       </c>
@@ -1734,7 +1736,7 @@
       <c r="H39" s="51"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="30">
         <v>37</v>
       </c>
@@ -1752,7 +1754,7 @@
       <c r="H40" s="51"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
+      <c r="A41" s="59"/>
       <c r="B41" s="30">
         <v>38</v>
       </c>
@@ -1770,7 +1772,7 @@
       <c r="H41" s="51"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="59" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="15">
@@ -1790,7 +1792,7 @@
       <c r="H42" s="51"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="15">
         <v>40</v>
       </c>
@@ -1808,7 +1810,7 @@
       <c r="H43" s="51"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="15">
         <v>41</v>
       </c>
@@ -1826,7 +1828,7 @@
       <c r="H44" s="51"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="15">
         <v>42</v>
       </c>
@@ -1844,7 +1846,7 @@
       <c r="H45" s="51"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="59" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="20">
@@ -1864,7 +1866,7 @@
       <c r="H46" s="51"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="20">
         <v>44</v>
       </c>
@@ -1882,7 +1884,7 @@
       <c r="H47" s="51"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="54"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="20">
         <v>45</v>
       </c>
@@ -1900,7 +1902,7 @@
       <c r="H48" s="51"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="20">
         <v>46</v>
       </c>
@@ -1918,7 +1920,7 @@
       <c r="H49" s="51"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="32">
@@ -1938,7 +1940,7 @@
       <c r="H50" s="51"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="32">
         <v>48</v>
       </c>
@@ -1956,7 +1958,7 @@
       <c r="H51" s="51"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="54"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="32">
         <v>49</v>
       </c>
@@ -1974,7 +1976,7 @@
       <c r="H52" s="51"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="54"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="32">
         <v>50</v>
       </c>
@@ -1992,7 +1994,7 @@
       <c r="H53" s="51"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="34">
@@ -2012,7 +2014,7 @@
       <c r="H54" s="51"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="54"/>
+      <c r="A55" s="59"/>
       <c r="B55" s="37">
         <v>52</v>
       </c>
@@ -2036,29 +2038,29 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
     </row>
     <row r="58" spans="1:8" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="42">
         <v>1</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
     </row>
     <row r="59" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47"/>
@@ -2074,15 +2076,15 @@
       <c r="A60" s="42">
         <v>2</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
     </row>
     <row r="61" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
@@ -2098,15 +2100,15 @@
       <c r="A62" s="42">
         <v>3</v>
       </c>
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
     </row>
     <row r="63" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="48"/>
@@ -2296,11 +2298,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
@@ -2316,6 +2313,11 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/desafioFinanceiro/DesafioPoupança4reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança4reais.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -988,7 +988,7 @@
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1156,10 +1156,16 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="E8" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
+      <c r="H8" s="49" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>

--- a/desafioFinanceiro/DesafioPoupança4reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança4reais.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -988,7 +988,7 @@
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1180,9 +1180,13 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="E9" s="50"/>
+      <c r="E9" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="49"/>
+      <c r="G9" s="49" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="49"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">

--- a/desafioFinanceiro/DesafioPoupança4reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança4reais.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -621,6 +621,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -635,9 +638,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -988,7 +988,7 @@
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1007,15 +1007,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="57" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="39" t="s">
@@ -1041,7 +1041,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5">
@@ -1068,7 +1068,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -1092,7 +1092,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7">
@@ -1118,7 +1118,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="7">
         <v>4</v>
       </c>
@@ -1144,7 +1144,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="7">
         <v>5</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="7">
         <v>6</v>
       </c>
@@ -1183,14 +1183,16 @@
       <c r="E9" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="50"/>
+      <c r="F9" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="G9" s="49" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="49"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="54" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="9">
@@ -1210,7 +1212,7 @@
       <c r="H10" s="49"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="9">
         <v>8</v>
       </c>
@@ -1228,7 +1230,7 @@
       <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="9">
         <v>9</v>
       </c>
@@ -1246,7 +1248,7 @@
       <c r="H12" s="51"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="9">
         <v>10</v>
       </c>
@@ -1264,7 +1266,7 @@
       <c r="H13" s="51"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="54" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="13">
@@ -1284,7 +1286,7 @@
       <c r="H14" s="51"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="13">
         <v>12</v>
       </c>
@@ -1302,7 +1304,7 @@
       <c r="H15" s="51"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="13">
         <v>13</v>
       </c>
@@ -1320,7 +1322,7 @@
       <c r="H16" s="51"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="13">
         <v>14</v>
       </c>
@@ -1338,7 +1340,7 @@
       <c r="H17" s="51"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="54" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11">
@@ -1358,7 +1360,7 @@
       <c r="H18" s="51"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="11">
         <v>16</v>
       </c>
@@ -1376,7 +1378,7 @@
       <c r="H19" s="51"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="11">
         <v>17</v>
       </c>
@@ -1394,7 +1396,7 @@
       <c r="H20" s="51"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="11">
         <v>18</v>
       </c>
@@ -1412,7 +1414,7 @@
       <c r="H21" s="51"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="54" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="17">
@@ -1432,7 +1434,7 @@
       <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="4">
         <v>20</v>
       </c>
@@ -1450,7 +1452,7 @@
       <c r="H23" s="51"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="4">
         <v>21</v>
       </c>
@@ -1468,7 +1470,7 @@
       <c r="H24" s="51"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="4">
         <v>22</v>
       </c>
@@ -1486,7 +1488,7 @@
       <c r="H25" s="51"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="54" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="22">
@@ -1506,7 +1508,7 @@
       <c r="H26" s="51"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="24">
         <v>24</v>
       </c>
@@ -1524,7 +1526,7 @@
       <c r="H27" s="51"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="24">
         <v>25</v>
       </c>
@@ -1542,7 +1544,7 @@
       <c r="H28" s="51"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="24">
         <v>26</v>
       </c>
@@ -1560,7 +1562,7 @@
       <c r="H29" s="51"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="54" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="26">
@@ -1580,7 +1582,7 @@
       <c r="H30" s="51"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="26">
         <v>28</v>
       </c>
@@ -1598,7 +1600,7 @@
       <c r="H31" s="51"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="26">
         <v>29</v>
       </c>
@@ -1616,7 +1618,7 @@
       <c r="H32" s="51"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="59"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="26">
         <v>30</v>
       </c>
@@ -1634,7 +1636,7 @@
       <c r="H33" s="51"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="54" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="28">
@@ -1654,7 +1656,7 @@
       <c r="H34" s="51"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="28">
         <v>32</v>
       </c>
@@ -1672,7 +1674,7 @@
       <c r="H35" s="51"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="59"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="28">
         <v>33</v>
       </c>
@@ -1690,7 +1692,7 @@
       <c r="H36" s="51"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="28">
         <v>34</v>
       </c>
@@ -1708,7 +1710,7 @@
       <c r="H37" s="51"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="54" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="30">
@@ -1728,7 +1730,7 @@
       <c r="H38" s="51"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="59"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="30">
         <v>36</v>
       </c>
@@ -1746,7 +1748,7 @@
       <c r="H39" s="51"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="59"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="30">
         <v>37</v>
       </c>
@@ -1764,7 +1766,7 @@
       <c r="H40" s="51"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="59"/>
+      <c r="A41" s="54"/>
       <c r="B41" s="30">
         <v>38</v>
       </c>
@@ -1782,7 +1784,7 @@
       <c r="H41" s="51"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="15">
@@ -1802,7 +1804,7 @@
       <c r="H42" s="51"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="15">
         <v>40</v>
       </c>
@@ -1820,7 +1822,7 @@
       <c r="H43" s="51"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="15">
         <v>41</v>
       </c>
@@ -1838,7 +1840,7 @@
       <c r="H44" s="51"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="15">
         <v>42</v>
       </c>
@@ -1856,7 +1858,7 @@
       <c r="H45" s="51"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="54" t="s">
         <v>15</v>
       </c>
       <c r="B46" s="20">
@@ -1876,7 +1878,7 @@
       <c r="H46" s="51"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="20">
         <v>44</v>
       </c>
@@ -1894,7 +1896,7 @@
       <c r="H47" s="51"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="59"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="20">
         <v>45</v>
       </c>
@@ -1912,7 +1914,7 @@
       <c r="H48" s="51"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="20">
         <v>46</v>
       </c>
@@ -1930,7 +1932,7 @@
       <c r="H49" s="51"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="32">
@@ -1950,7 +1952,7 @@
       <c r="H50" s="51"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="59"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="32">
         <v>48</v>
       </c>
@@ -1968,7 +1970,7 @@
       <c r="H51" s="51"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="59"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="32">
         <v>49</v>
       </c>
@@ -1986,7 +1988,7 @@
       <c r="H52" s="51"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="59"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="32">
         <v>50</v>
       </c>
@@ -2004,7 +2006,7 @@
       <c r="H53" s="51"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="34">
@@ -2024,7 +2026,7 @@
       <c r="H54" s="51"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="59"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="37">
         <v>52</v>
       </c>
@@ -2048,29 +2050,29 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
     </row>
     <row r="58" spans="1:8" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="42">
         <v>1</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
     </row>
     <row r="59" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47"/>
@@ -2086,15 +2088,15 @@
       <c r="A60" s="42">
         <v>2</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
     </row>
     <row r="61" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
@@ -2110,15 +2112,15 @@
       <c r="A62" s="42">
         <v>3</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
     </row>
     <row r="63" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="48"/>
@@ -2308,6 +2310,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B60:H60"/>
+    <mergeCell ref="B62:H62"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A46:A49"/>
@@ -2323,11 +2330,6 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B60:H60"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/desafioFinanceiro/DesafioPoupança4reais.xlsx
+++ b/desafioFinanceiro/DesafioPoupança4reais.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>Semana</t>
   </si>
@@ -988,7 +988,7 @@
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1206,10 +1206,16 @@
         <f>C10+D9</f>
         <v>112</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
+      <c r="E10" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
+      <c r="H10" s="49" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="54"/>
@@ -1224,9 +1230,15 @@
         <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
+      <c r="E11" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1242,8 +1254,12 @@
         <f>C12+D11</f>
         <v>180</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="E12" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="G12" s="51"/>
       <c r="H12" s="51"/>
     </row>
@@ -1260,10 +1276,16 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
+      <c r="E13" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
+      <c r="H13" s="51" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="54" t="s">
@@ -1280,10 +1302,16 @@
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="E14" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="H14" s="51" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="54"/>
